--- a/Backlogs/Product Backlog.xlsx
+++ b/Backlogs/Product Backlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>I can increse or decrese speed of the audio file while playing</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -406,8 +409,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -417,7 +420,7 @@
     <col min="4" max="4" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="12.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -460,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -486,7 +489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -509,7 +512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -532,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -555,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -578,7 +581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -601,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -624,7 +627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -647,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>

--- a/Backlogs/Product Backlog.xlsx
+++ b/Backlogs/Product Backlog.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="570" windowWidth="18855" windowHeight="7875"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -106,32 +109,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -141,56 +150,57 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -380,25 +390,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.71"/>
-    <col customWidth="1" min="3" max="3" width="58.57"/>
-    <col customWidth="1" min="4" max="4" width="58.43"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,9 +436,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -435,18 +450,18 @@
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -458,18 +473,18 @@
         <v>12</v>
       </c>
       <c r="E3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -481,18 +496,18 @@
         <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -504,18 +519,18 @@
         <v>16</v>
       </c>
       <c r="E5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -527,18 +542,18 @@
         <v>18</v>
       </c>
       <c r="E6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -550,18 +565,18 @@
         <v>20</v>
       </c>
       <c r="E7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>4.0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -573,18 +588,18 @@
         <v>23</v>
       </c>
       <c r="E8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>3.0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -596,18 +611,18 @@
         <v>25</v>
       </c>
       <c r="E9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
-        <v>3.0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -619,18 +634,18 @@
         <v>27</v>
       </c>
       <c r="E10" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -642,16 +657,16 @@
         <v>29</v>
       </c>
       <c r="E11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>